--- a/Datatest/Leads.xlsx
+++ b/Datatest/Leads.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MyCrm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MyCrm\CloneCrm\Datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>

--- a/Datatest/Leads.xlsx
+++ b/Datatest/Leads.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>account</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -74,15 +68,6 @@
     <t>opportunity amout</t>
   </si>
   <si>
-    <t>created by</t>
-  </si>
-  <si>
-    <t>created on</t>
-  </si>
-  <si>
-    <t>is active</t>
-  </si>
-  <si>
     <t>enquery type</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t>lanh</t>
   </si>
   <si>
-    <t>Nhan</t>
-  </si>
-  <si>
     <t>call</t>
   </si>
   <si>
@@ -165,15 +147,63 @@
   </si>
   <si>
     <t>HaiN</t>
+  </si>
+  <si>
+    <t>Nhung1</t>
+  </si>
+  <si>
+    <t>Nhung2</t>
+  </si>
+  <si>
+    <t>Nhung3</t>
+  </si>
+  <si>
+    <t>Nhung4</t>
+  </si>
+  <si>
+    <t>Nhung5</t>
+  </si>
+  <si>
+    <t>Nhung6</t>
+  </si>
+  <si>
+    <t>Nhung7</t>
+  </si>
+  <si>
+    <t>Nhung8</t>
+  </si>
+  <si>
+    <t>Nhung9</t>
+  </si>
+  <si>
+    <t>Nhung10</t>
+  </si>
+  <si>
+    <t>Nhung11</t>
+  </si>
+  <si>
+    <t>Nhung12</t>
+  </si>
+  <si>
+    <t>Nhung13</t>
+  </si>
+  <si>
+    <t>Nhung14</t>
+  </si>
+  <si>
+    <t>Nhung15</t>
+  </si>
+  <si>
+    <t>Nhung16</t>
+  </si>
+  <si>
+    <t>Nhung17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,9 +233,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,37 +515,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A5" sqref="A5:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,247 +586,948 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="str">
+        <f>B2&amp;"@Gmail.com"</f>
+        <v>dung@Gmail.com</v>
+      </c>
+      <c r="E2">
+        <v>947947990</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="str">
-        <f>C2&amp;"@Gmail.com"</f>
-        <v>dung@Gmail.com</v>
-      </c>
-      <c r="F2">
-        <v>947947990</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="str">
+        <f>B2&amp;C2</f>
+        <v>dungDinh</v>
+      </c>
+      <c r="N2">
+        <v>12.3</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="str">
-        <f>C2&amp;D2</f>
-        <v>dungDinh</v>
-      </c>
-      <c r="P2">
-        <v>12.3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="1">
-        <v>43470.896469907406</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">B3&amp;"@Gmail.com"</f>
+        <v>thu@Gmail.com</v>
+      </c>
+      <c r="E3">
+        <v>947947991</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E5" si="0">C3&amp;"@Gmail.com"</f>
-        <v>thu@Gmail.com</v>
-      </c>
-      <c r="F3">
-        <v>947947991</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O5" si="1">C3&amp;D3</f>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M5" si="1">B3&amp;C3</f>
         <v>thuTran</v>
       </c>
-      <c r="P3">
+      <c r="N3">
         <v>12.5</v>
       </c>
-      <c r="Q3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="1">
-        <v>43471.89646984954</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="str">
+        <v>17</v>
+      </c>
+      <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>lanh@Gmail.com</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <v>947947992</v>
       </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="str">
+        <v>39</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" si="1"/>
         <v>lanhPham</v>
       </c>
-      <c r="P4">
+      <c r="N4">
         <v>15.24</v>
       </c>
-      <c r="Q4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="1">
-        <v>43472.89646984954</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="str">
+        <v>18</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>Nhan@Gmail.com</v>
-      </c>
-      <c r="F5">
+        <v>Nhung1@Gmail.com</v>
+      </c>
+      <c r="E5">
         <v>947947993</v>
       </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nhung1Nguyen</v>
+      </c>
+      <c r="N5">
+        <v>16.78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:D21" si="2">B6&amp;"@Gmail.com"</f>
+        <v>Nhung2@Gmail.com</v>
+      </c>
+      <c r="E6">
+        <v>947947994</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ref="M6:M21" si="3">B6&amp;C6</f>
+        <v>Nhung2Nguyen</v>
+      </c>
+      <c r="N6">
+        <v>17.78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung3@Gmail.com</v>
+      </c>
+      <c r="E7">
+        <v>947947995</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung3Nguyen</v>
+      </c>
+      <c r="N7">
+        <v>18.78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung4@Gmail.com</v>
+      </c>
+      <c r="E8">
+        <v>947947996</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung4Nguyen</v>
+      </c>
+      <c r="N8">
+        <v>19.78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="1"/>
-        <v>NhanNguyen</v>
-      </c>
-      <c r="P5">
-        <v>16.78</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung5@Gmail.com</v>
+      </c>
+      <c r="E9">
+        <v>947947997</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung5Nguyen</v>
+      </c>
+      <c r="N9">
+        <v>20.78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="1">
-        <v>43473.89646984954</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung6@Gmail.com</v>
+      </c>
+      <c r="E10">
+        <v>947947998</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung6Nguyen</v>
+      </c>
+      <c r="N10">
+        <v>21.78</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung7@Gmail.com</v>
+      </c>
+      <c r="E11">
+        <v>947947999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung7Nguyen</v>
+      </c>
+      <c r="N11">
+        <v>22.78</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung8@Gmail.com</v>
+      </c>
+      <c r="E12">
+        <v>947948000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung8Nguyen</v>
+      </c>
+      <c r="N12">
+        <v>23.78</v>
+      </c>
+      <c r="O12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung9@Gmail.com</v>
+      </c>
+      <c r="E13">
+        <v>947948001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung9Nguyen</v>
+      </c>
+      <c r="N13">
+        <v>24.78</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung10@Gmail.com</v>
+      </c>
+      <c r="E14">
+        <v>947948002</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung10Nguyen</v>
+      </c>
+      <c r="N14">
+        <v>25.78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung11@Gmail.com</v>
+      </c>
+      <c r="E15">
+        <v>947948003</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung11Nguyen</v>
+      </c>
+      <c r="N15">
+        <v>26.78</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung12@Gmail.com</v>
+      </c>
+      <c r="E16">
+        <v>947948004</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung12Nguyen</v>
+      </c>
+      <c r="N16">
+        <v>27.78</v>
+      </c>
+      <c r="O16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung13@Gmail.com</v>
+      </c>
+      <c r="E17">
+        <v>947948005</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung13Nguyen</v>
+      </c>
+      <c r="N17">
+        <v>28.78</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung14@Gmail.com</v>
+      </c>
+      <c r="E18">
+        <v>947948006</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung14Nguyen</v>
+      </c>
+      <c r="N18">
+        <v>29.78</v>
+      </c>
+      <c r="O18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung15@Gmail.com</v>
+      </c>
+      <c r="E19">
+        <v>947948007</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung15Nguyen</v>
+      </c>
+      <c r="N19">
+        <v>30.78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung16@Gmail.com</v>
+      </c>
+      <c r="E20">
+        <v>947948008</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung16Nguyen</v>
+      </c>
+      <c r="N20">
+        <v>31.78</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>Nhung17@Gmail.com</v>
+      </c>
+      <c r="E21">
+        <v>947948009</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="3"/>
+        <v>Nhung17Nguyen</v>
+      </c>
+      <c r="N21">
+        <v>32.78</v>
+      </c>
+      <c r="O21" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="K4" r:id="rId2"/>
-    <hyperlink ref="K5" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="I7" r:id="rId5"/>
+    <hyperlink ref="I8" r:id="rId6"/>
+    <hyperlink ref="I9" r:id="rId7"/>
+    <hyperlink ref="I10" r:id="rId8"/>
+    <hyperlink ref="I11" r:id="rId9"/>
+    <hyperlink ref="I12" r:id="rId10"/>
+    <hyperlink ref="I13" r:id="rId11"/>
+    <hyperlink ref="I14" r:id="rId12"/>
+    <hyperlink ref="I15" r:id="rId13"/>
+    <hyperlink ref="I16" r:id="rId14"/>
+    <hyperlink ref="I17" r:id="rId15"/>
+    <hyperlink ref="I18" r:id="rId16"/>
+    <hyperlink ref="I19" r:id="rId17"/>
+    <hyperlink ref="I20" r:id="rId18"/>
+    <hyperlink ref="I21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datatest/Leads.xlsx
+++ b/Datatest/Leads.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Nhung17</t>
+  </si>
+  <si>
+    <t>Nhung18</t>
+  </si>
+  <si>
+    <t>Nhung19</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,6 +1513,98 @@
         <v>31</v>
       </c>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:D23" si="4">B22&amp;"@Gmail.com"</f>
+        <v>Nhung18@Gmail.com</v>
+      </c>
+      <c r="E22">
+        <v>947948010</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:M23" si="5">B22&amp;C22</f>
+        <v>Nhung18Nguyen</v>
+      </c>
+      <c r="N22">
+        <v>33.78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="4"/>
+        <v>Nhung19@Gmail.com</v>
+      </c>
+      <c r="E23">
+        <v>947948011</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="5"/>
+        <v>Nhung19Nguyen</v>
+      </c>
+      <c r="N23">
+        <v>34.78</v>
+      </c>
+      <c r="O23" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1"/>
@@ -1528,6 +1626,8 @@
     <hyperlink ref="I19" r:id="rId17"/>
     <hyperlink ref="I20" r:id="rId18"/>
     <hyperlink ref="I21" r:id="rId19"/>
+    <hyperlink ref="I22" r:id="rId20"/>
+    <hyperlink ref="I23" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datatest/Leads.xlsx
+++ b/Datatest/Leads.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Nhung19</t>
+  </si>
+  <si>
+    <t>+84947947990</t>
   </si>
 </sst>
 </file>
@@ -239,8 +242,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +537,7 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -607,8 +611,8 @@
         <f>B2&amp;"@Gmail.com"</f>
         <v>dung@Gmail.com</v>
       </c>
-      <c r="E2">
-        <v>947947990</v>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -653,8 +657,8 @@
         <f t="shared" ref="D3:D5" si="0">B3&amp;"@Gmail.com"</f>
         <v>thu@Gmail.com</v>
       </c>
-      <c r="E3">
-        <v>947947991</v>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -699,8 +703,8 @@
         <f t="shared" si="0"/>
         <v>lanh@Gmail.com</v>
       </c>
-      <c r="E4">
-        <v>947947992</v>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -745,8 +749,8 @@
         <f t="shared" si="0"/>
         <v>Nhung1@Gmail.com</v>
       </c>
-      <c r="E5">
-        <v>947947993</v>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -791,8 +795,8 @@
         <f t="shared" ref="D6:D21" si="2">B6&amp;"@Gmail.com"</f>
         <v>Nhung2@Gmail.com</v>
       </c>
-      <c r="E6">
-        <v>947947994</v>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -837,8 +841,8 @@
         <f t="shared" si="2"/>
         <v>Nhung3@Gmail.com</v>
       </c>
-      <c r="E7">
-        <v>947947995</v>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -883,8 +887,8 @@
         <f t="shared" si="2"/>
         <v>Nhung4@Gmail.com</v>
       </c>
-      <c r="E8">
-        <v>947947996</v>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -929,8 +933,8 @@
         <f t="shared" si="2"/>
         <v>Nhung5@Gmail.com</v>
       </c>
-      <c r="E9">
-        <v>947947997</v>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -975,8 +979,8 @@
         <f t="shared" si="2"/>
         <v>Nhung6@Gmail.com</v>
       </c>
-      <c r="E10">
-        <v>947947998</v>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -1021,8 +1025,8 @@
         <f t="shared" si="2"/>
         <v>Nhung7@Gmail.com</v>
       </c>
-      <c r="E11">
-        <v>947947999</v>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -1067,8 +1071,8 @@
         <f t="shared" si="2"/>
         <v>Nhung8@Gmail.com</v>
       </c>
-      <c r="E12">
-        <v>947948000</v>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -1113,8 +1117,8 @@
         <f t="shared" si="2"/>
         <v>Nhung9@Gmail.com</v>
       </c>
-      <c r="E13">
-        <v>947948001</v>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -1159,8 +1163,8 @@
         <f t="shared" si="2"/>
         <v>Nhung10@Gmail.com</v>
       </c>
-      <c r="E14">
-        <v>947948002</v>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -1205,8 +1209,8 @@
         <f t="shared" si="2"/>
         <v>Nhung11@Gmail.com</v>
       </c>
-      <c r="E15">
-        <v>947948003</v>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -1251,8 +1255,8 @@
         <f t="shared" si="2"/>
         <v>Nhung12@Gmail.com</v>
       </c>
-      <c r="E16">
-        <v>947948004</v>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -1297,8 +1301,8 @@
         <f t="shared" si="2"/>
         <v>Nhung13@Gmail.com</v>
       </c>
-      <c r="E17">
-        <v>947948005</v>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -1343,8 +1347,8 @@
         <f t="shared" si="2"/>
         <v>Nhung14@Gmail.com</v>
       </c>
-      <c r="E18">
-        <v>947948006</v>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -1389,8 +1393,8 @@
         <f t="shared" si="2"/>
         <v>Nhung15@Gmail.com</v>
       </c>
-      <c r="E19">
-        <v>947948007</v>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -1435,8 +1439,8 @@
         <f t="shared" si="2"/>
         <v>Nhung16@Gmail.com</v>
       </c>
-      <c r="E20">
-        <v>947948008</v>
+      <c r="E20" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -1481,8 +1485,8 @@
         <f t="shared" si="2"/>
         <v>Nhung17@Gmail.com</v>
       </c>
-      <c r="E21">
-        <v>947948009</v>
+      <c r="E21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
@@ -1527,8 +1531,8 @@
         <f t="shared" ref="D22:D23" si="4">B22&amp;"@Gmail.com"</f>
         <v>Nhung18@Gmail.com</v>
       </c>
-      <c r="E22">
-        <v>947948010</v>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -1573,8 +1577,8 @@
         <f t="shared" si="4"/>
         <v>Nhung19@Gmail.com</v>
       </c>
-      <c r="E23">
-        <v>947948011</v>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
